--- a/Svetla Lukanova/Lecture 7 Homework/Online Store Bugs.xlsx
+++ b/Svetla Lukanova/Lecture 7 Homework/Online Store Bugs.xlsx
@@ -5,23 +5,26 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svetl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svetl\Desktop\Skillo_22_04_2019\Svetla Lukanova\Lecture 7 Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A59618D-CA8E-4AC6-ABC9-1F8B4C34839B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9676AF-EFFC-4C8C-80A9-DB859C6D61E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3 DAYS SALE banner bug" sheetId="1" r:id="rId1"/>
     <sheet name="More tabs bug" sheetId="2" r:id="rId2"/>
+    <sheet name="Follow us on Facebook BUG" sheetId="3" r:id="rId3"/>
+    <sheet name="Search option BUG" sheetId="4" r:id="rId4"/>
+    <sheet name="Sale 70% off banner BUG" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="61">
   <si>
     <t>Priority</t>
   </si>
@@ -144,6 +147,87 @@
   </si>
   <si>
     <t>More tabs</t>
+  </si>
+  <si>
+    <t>PSB003</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Follow us on Facebook button doesn’t work</t>
+  </si>
+  <si>
+    <t>After the user clicks "Follow us on Facebook" button it doesn’t go to the site on facebook</t>
+  </si>
+  <si>
+    <t>1. Go to http://automationpractice.com/index.php
+2. Click "Follow us on Facebook"
+Expected result: the user is redirected to the site's facebook homepage
+Actual result: the user is redirected to facebook group called Selenium Framework</t>
+  </si>
+  <si>
+    <t>Created at 19:51 PM, EEST 
+UTC/GMT +3 hours</t>
+  </si>
+  <si>
+    <t>Follow us on Facebook button</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox Version 67; IE11</t>
+  </si>
+  <si>
+    <t>Svetla Lukanova created the bug on 27.05.2019</t>
+  </si>
+  <si>
+    <t>PSB004</t>
+  </si>
+  <si>
+    <t>Search option doesn't work properly</t>
+  </si>
+  <si>
+    <t>Search option shows results that are not defined</t>
+  </si>
+  <si>
+    <t>1. Go to http://automationpractice.com/index.php
+2. Write dress on the search opion
+Expected result: Dress results are shown
+Actual result: Dress, T-Shirt, Skirt and Blouse resilts are shown</t>
+  </si>
+  <si>
+    <t>Created at 20:15 PM, EEST 
+UTC/GMT +3 hours</t>
+  </si>
+  <si>
+    <t>Search option</t>
+  </si>
+  <si>
+    <t>PSB005</t>
+  </si>
+  <si>
+    <t>27.05.2019</t>
+  </si>
+  <si>
+    <t>"Sale 70% off all products" banner is not awailable</t>
+  </si>
+  <si>
+    <t>When the user clicks the "Sale 70% off all products" banner the site doesn’t redirect to the promotion</t>
+  </si>
+  <si>
+    <t>The same bug is with Twitter and YouTube buttons</t>
+  </si>
+  <si>
+    <t>1. Go to http://automationpractice.com/index.php
+2. Click "Sale 70% off all products" banner
+Expected result: the site should redirects the user to the promotion
+Actual result: homepage is opened again</t>
+  </si>
+  <si>
+    <t>Created at 20:55 PM, EEST 
+UTC/GMT +3 hours</t>
   </si>
 </sst>
 </file>
@@ -436,6 +520,349 @@
         <a:xfrm>
           <a:off x="2965451" y="3092027"/>
           <a:ext cx="5219700" cy="1132263"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4362450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31015D35-83C4-4C40-BF90-A12B7A71CC35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="0"/>
+          <a:ext cx="2247900" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>36248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2629374</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1214771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B454CC2-B506-4578-8749-169DB7731561}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2813050" y="2252398"/>
+          <a:ext cx="2578574" cy="1178523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4362450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{122D8CF2-3031-4FEF-A436-B9C513C19100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="0"/>
+          <a:ext cx="2247900" cy="530225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>120652</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1535762</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2078144</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB261731-AA99-46E9-9778-A09A15A6CE83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2120902" y="2241549"/>
+          <a:ext cx="1415110" cy="2046395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4362450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{044AB949-B78B-414E-9DCF-E7A552A7D67D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="0"/>
+          <a:ext cx="2247900" cy="530225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4362450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="logo.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3031F0CE-5951-492C-B37F-519F50B5E934}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="0"/>
+          <a:ext cx="2247900" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>44451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2287852</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1365250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B66B9C7-9DA2-4576-91A2-CEA5CAEDC84D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2851150" y="2260601"/>
+          <a:ext cx="2198952" cy="1320799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -770,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D15:D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -932,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D63531-A760-4B66-BD0F-9D044E9F0375}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1087,4 +1514,483 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB083409-58BF-4D57-949F-651B3B4E4A57}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.54296875" customWidth="1"/>
+    <col min="2" max="2" width="83" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" customWidth="1"/>
+    <col min="4" max="4" width="41.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="143" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3083DDD-64D9-4C5E-A24E-62EBAF38B3E8}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="191" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9817E185-2833-409D-8B82-B79F621C386D}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.54296875" customWidth="1"/>
+    <col min="2" max="2" width="83" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" customWidth="1"/>
+    <col min="4" max="4" width="41.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="141" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>